--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Goal</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Objective</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>NBC là gì? Thuộc nhóm thuật toán nào?</t>
   </si>
   <si>
@@ -53,14 +50,71 @@
     <t>Lập chương trình sử dụng NBC</t>
   </si>
   <si>
-    <t>Lập trình ứng dụng bằng Java mô tả cách làm của thuật toán NBC</t>
+    <t>Tuần 1</t>
+  </si>
+  <si>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>Tuần 9</t>
+  </si>
+  <si>
+    <t>Tuần 10</t>
+  </si>
+  <si>
+    <t>Tuần 11</t>
+  </si>
+  <si>
+    <t>Tuần 12</t>
+  </si>
+  <si>
+    <t>Tuần 13</t>
+  </si>
+  <si>
+    <t>Tuần 14</t>
+  </si>
+  <si>
+    <t>Tuần 15</t>
+  </si>
+  <si>
+    <t>Vẽ flow diagram, block diagram</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về ứng dụng Sentiment Analysis và cách áp dụng vào bài toán phân loại bình luận</t>
+  </si>
+  <si>
+    <t>tìm hiểu code thuật toán</t>
+  </si>
+  <si>
+    <t>Code áp dụng cho bài toán phân loại bình luận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">áp dụng thuật toán cho ứng dụng </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +130,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,21 +174,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,20 +573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,51 +594,244 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="10"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
